--- a/Raw Data/Linked AC.xlsx
+++ b/Raw Data/Linked AC.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kspann/Desktop/NeoBank/Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1613BF48-5EC7-8B45-A00F-262B8F47FE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8EBC6F-3FF4-F54C-B7D8-DA2D2DCFE0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="1460" windowWidth="24800" windowHeight="13060" xr2:uid="{8C0A3E8D-44E6-744B-846A-D63B835E527B}"/>
+    <workbookView xWindow="2620" yWindow="1460" windowWidth="24800" windowHeight="13060" activeTab="1" xr2:uid="{8C0A3E8D-44E6-744B-846A-D63B835E527B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="volumes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="117">
   <si>
     <t>sample_unique_id</t>
   </si>
@@ -237,13 +238,163 @@
   </si>
   <si>
     <t>438_2_M5</t>
+  </si>
+  <si>
+    <t>Subject ID</t>
+  </si>
+  <si>
+    <t>Prepped</t>
+  </si>
+  <si>
+    <t>Lab ID</t>
+  </si>
+  <si>
+    <t>NB00237</t>
+  </si>
+  <si>
+    <t>M_2</t>
+  </si>
+  <si>
+    <t>_1</t>
+  </si>
+  <si>
+    <t>NB00238</t>
+  </si>
+  <si>
+    <t>NB00354</t>
+  </si>
+  <si>
+    <t>M_3</t>
+  </si>
+  <si>
+    <t>NB00359</t>
+  </si>
+  <si>
+    <t>M_5</t>
+  </si>
+  <si>
+    <t>NB00360</t>
+  </si>
+  <si>
+    <t>M_4</t>
+  </si>
+  <si>
+    <t>NB00378</t>
+  </si>
+  <si>
+    <t>M_1</t>
+  </si>
+  <si>
+    <t>NB00380</t>
+  </si>
+  <si>
+    <t>NB00393</t>
+  </si>
+  <si>
+    <t>NB00398</t>
+  </si>
+  <si>
+    <t>NB00399</t>
+  </si>
+  <si>
+    <t>NB00400</t>
+  </si>
+  <si>
+    <t>NB00401</t>
+  </si>
+  <si>
+    <t>NB00402</t>
+  </si>
+  <si>
+    <t>NB00405</t>
+  </si>
+  <si>
+    <t>NB00406</t>
+  </si>
+  <si>
+    <t>NB00414</t>
+  </si>
+  <si>
+    <t>NB00423</t>
+  </si>
+  <si>
+    <t>M_4 (DBM)</t>
+  </si>
+  <si>
+    <t>_1 D</t>
+  </si>
+  <si>
+    <t>M_2 (MBM)</t>
+  </si>
+  <si>
+    <t>_1 M</t>
+  </si>
+  <si>
+    <t>NB00438</t>
+  </si>
+  <si>
+    <t>NB00456</t>
+  </si>
+  <si>
+    <t>NB00467/NB00438</t>
+  </si>
+  <si>
+    <t>NB00467_M_1/NB00438_M_4</t>
+  </si>
+  <si>
+    <t>0467_438</t>
+  </si>
+  <si>
+    <t>NB00468</t>
+  </si>
+  <si>
+    <t>NB00469</t>
+  </si>
+  <si>
+    <t>NB00486</t>
+  </si>
+  <si>
+    <t>NB00487</t>
+  </si>
+  <si>
+    <t>Scavanged</t>
+  </si>
+  <si>
+    <t>_2</t>
+  </si>
+  <si>
+    <t>M_6</t>
+  </si>
+  <si>
+    <t>M_5 (DBM)</t>
+  </si>
+  <si>
+    <t>_2 D</t>
+  </si>
+  <si>
+    <t>M_3 (MBM)</t>
+  </si>
+  <si>
+    <t>_2 M</t>
+  </si>
+  <si>
+    <t>_2 (M2)</t>
+  </si>
+  <si>
+    <t>NB00467_M_2</t>
+  </si>
+  <si>
+    <t>NB00438_M_5</t>
+  </si>
+  <si>
+    <t>_2 (M5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +404,34 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -278,9 +457,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,7 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0263E503-62C2-8441-81DC-A799EB093EF2}">
   <dimension ref="A1:AZ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -3154,4 +3338,912 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741EEF35-F4AC-4447-9EB2-47F4BD1B25BF}">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="4">
+        <v>237</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="4">
+        <v>238</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="4">
+        <v>354</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="4">
+        <v>359</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="4">
+        <v>360</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4">
+        <v>378</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4">
+        <v>380</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4">
+        <v>393</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="4">
+        <v>398</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="4">
+        <v>399</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="4">
+        <v>400</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="4">
+        <v>401</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="4">
+        <v>402</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4">
+        <v>405</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="4">
+        <v>406</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="4">
+        <v>414</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="4">
+        <v>423</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="4">
+        <v>423</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="4">
+        <v>438</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="4">
+        <v>456</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="4">
+        <v>468</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="4">
+        <v>469</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="4">
+        <v>486</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="4">
+        <v>487</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="4">
+        <v>237</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="4">
+        <v>238</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="4">
+        <v>354</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="4">
+        <v>359</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="4">
+        <v>360</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="4">
+        <v>378</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="4">
+        <v>380</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="4">
+        <v>393</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="4">
+        <v>398</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="4">
+        <v>399</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="4">
+        <v>400</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="4">
+        <v>401</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="4">
+        <v>402</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="4">
+        <v>405</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="4">
+        <v>406</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="4">
+        <v>414</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="4">
+        <v>423</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="4">
+        <v>423</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>44</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="4">
+        <v>438</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="4">
+        <v>456</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="4">
+        <v>467</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="4">
+        <v>468</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="4">
+        <v>469</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="4">
+        <v>486</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="4">
+        <v>487</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="4">
+        <v>438</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>